--- a/invitation/Haizhou Liu_Ai2healthcare_SpeakerInfoRequest.xlsx
+++ b/invitation/Haizhou Liu_Ai2healthcare_SpeakerInfoRequest.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shich\Documents\Ai2healthcare\invitation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437C3B45-101E-4874-9899-33FD7DC2F26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13176"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>[FirstName]</t>
   </si>
@@ -33,17 +39,17 @@
   </si>
   <si>
     <r>
-      <t>[CGM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排期</t>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>演讲题目</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +73,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>演讲题目</t>
+      <t>演讲时间</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +97,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>演讲时间</t>
+      <t>关键词</t>
     </r>
     <r>
       <rPr>
@@ -115,7 +121,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>关键词</t>
+      <t>嘉宾介绍</t>
     </r>
     <r>
       <rPr>
@@ -139,7 +145,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>嘉宾介绍</t>
+      <t>参考文献</t>
     </r>
     <r>
       <rPr>
@@ -163,7 +169,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中文摘要</t>
+      <t>嘉宾照片</t>
     </r>
     <r>
       <rPr>
@@ -174,57 +180,6 @@
       </rPr>
       <t>]</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考文献</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嘉宾照片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <t>[封面图片]</t>
   </si>
   <si>
     <t>CTpathway: a CrossTalk-based pathway enrichment analysis method for cancer research</t>
@@ -377,17 +332,44 @@
   <si>
     <t>通路富集分析方法是探索数百个基因的功能和识别疾病风险通路的常用方法。此外，不同的通路通过交互作用（crosstalk）发挥其功能。然而，现有的通路富集分析方法没有充分考虑通路crosstalk作用，导致许多风险通路容易被忽略。为了克服这个不足，我们开发了一种新的基于crosstalk的通路富集分析方法，CTpathway，该方法基于整合来自8个数据库的通路信息、转录调控信息以及大规模的蛋白质-蛋白质相互作用而新构建的具有&gt;15，900个基因和&gt;440，000条边的全局通路crosstalk图（GPCM），结合基因的差异表达和crosstalk作用，我们为每个基因计算了风险评分，并识别了风险途径。对10个癌症组织和血液样本的&gt;8300个表达谱的分析表明，CTpathway在识别风险通路方面优于当前常用的方法，CTpathway具有更高的准确性、可重复性和运行速度。CTpathway不仅可以识别到已知的风险通路，而且特异识别了其它方法忽略的关键通路。CTpathway在识别癌症不同阶段的风险通路方面也优于其他方法，尤其针对具有较少差异表达基因的早期癌症。此外，CTpathway的稳健设计可以使研究人员能够分析混合测序和单细胞RNA-seq表达谱，以更高的准确性预测癌症组织和细胞类型特异的风险通路。总的来说，CTpathway是一种快速、准确、稳定的用于癌症研究的通路富集分析方法。CTpathway网址：http://www.jianglab.cn/CTpathway/ . CTpathway独立程序：https://github.com/Bioccjw/CTpathway .</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[AI2Health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>[背景介绍]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -400,7 +382,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -493,19 +475,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -513,7 +495,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,11 +523,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>3172406</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2252868</xdr:rowOff>
+      <xdr:rowOff>2243343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -568,49 +556,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5875530</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>148612</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1170609" y="6062870"/>
-          <a:ext cx="5875530" cy="4709568"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -685,9 +635,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,6 +687,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -895,110 +879,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="180.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="180.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.75">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="15.75">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="15.75">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="47.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" ht="155.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" ht="31.5">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" ht="177" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" s="1" customFormat="1" ht="15.75">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" ht="15.75">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" ht="15.75">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
@@ -1010,12 +992,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1024,12 +1006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
